--- a/car-document/problem_list.xlsx
+++ b/car-document/problem_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,6 +111,42 @@
   </si>
   <si>
     <t>列表中点击短信功能尚未实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法结账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，点击出现服务器内部,2，不需要显示照片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,16 +527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="63.25" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -607,7 +644,9 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1">
       <c r="A8" s="1">
@@ -691,7 +730,48 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" customHeight="1">
-      <c r="C14" s="2"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/car-document/problem_list.xlsx
+++ b/car-document/problem_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,39 +114,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>车型管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法结账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，点击出现服务器内部,2，不需要显示照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>车型管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法结账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，点击出现服务器内部,2，不需要显示照片</t>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情，编辑，添加全部改为弹出式交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -588,7 +604,9 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
       <c r="A4" s="1">
@@ -602,7 +620,9 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1">
       <c r="A5" s="1">
@@ -630,7 +650,9 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="34.5" customHeight="1">
       <c r="A7" s="1">
@@ -645,7 +667,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1">
@@ -688,7 +710,9 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
       <c r="A11" s="1">
@@ -716,7 +740,9 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1">
       <c r="A13" s="1">
@@ -728,49 +754,69 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.75" customHeight="1">
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="35.25" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/car-document/problem_list.xlsx
+++ b/car-document/problem_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,35 +134,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>个人信息管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，点击出现服务器内部,2，不需要显示照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情，编辑，添加全部改为弹出式交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多商家登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同商家（区分管理员账号和操作员账号）登录对应不同的数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>无法修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>个人信息管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，点击出现服务器内部,2，不需要显示照片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情，编辑，添加全部改为弹出式交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限分配，不同账号（管理员和操作员）登陆，隐藏不该显示的模块。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +280,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -543,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -605,7 +650,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
@@ -621,7 +666,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1">
@@ -651,7 +696,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.5" customHeight="1">
@@ -667,7 +712,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1">
@@ -711,7 +756,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
@@ -741,7 +786,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1">
@@ -755,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="35.25" customHeight="1">
@@ -781,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" customHeight="1">
@@ -792,21 +837,25 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="24.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
@@ -816,7 +865,42 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/car-document/problem_list.xlsx
+++ b/car-document/problem_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +195,22 @@
   </si>
   <si>
     <t>TODO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -727,7 +743,9 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="35.25" customHeight="1">
       <c r="A9" s="1">
@@ -741,7 +759,9 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="35.25" customHeight="1">
       <c r="A10" s="1">
@@ -771,7 +791,9 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1">
       <c r="A12" s="1">
@@ -813,7 +835,9 @@
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="1">

--- a/car-document/problem_list.xlsx
+++ b/car-document/problem_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -686,18 +690,20 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
       <c r="A6" s="1">

--- a/car-document/problem_list.xlsx
+++ b/car-document/problem_list.xlsx
@@ -66,155 +66,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>搜索模块无效，无法搜索，以前是ok的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉列表前的复选框，实际意义不大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 右侧的登陆信息应动态显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将所有除网址外英文改为对应中文显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情显示格式统一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中点击短信功能尚未实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，点击出现服务器内部,2，不需要显示照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情，编辑，添加全部改为弹出式交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同商家（区分管理员账号和操作员账号）登录对应不同的数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多商家登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限分配，不同账号（管理员和操作员）登陆，隐藏不该显示的模块。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法结账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击不同模块应显示正确的路径展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表的item居中显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>所有模块如果没有数据应给出当前没有数据的提示在页面上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索模块无效，无法搜索，以前是ok的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉列表前的复选框，实际意义不大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表的item居中显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击不同模块应显示正确的路径展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页 右侧的登陆信息应动态显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将所有除网址外英文改为对应中文显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情显示格式统一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表中点击短信功能尚未实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>车型管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法结账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，点击出现服务器内部,2，不需要显示照片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情，编辑，添加全部改为弹出式交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多商家登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同商家（区分管理员账号和操作员账号）登录对应不同的数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限分配，不同账号（管理员和操作员）登陆，隐藏不该显示的模块。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -670,7 +670,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
@@ -686,7 +686,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1">
@@ -697,12 +697,12 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
@@ -713,12 +713,12 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.5" customHeight="1">
@@ -726,15 +726,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1">
@@ -745,12 +745,12 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="35.25" customHeight="1">
@@ -758,15 +758,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="35.25" customHeight="1">
@@ -774,15 +774,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
@@ -793,12 +793,12 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1">
@@ -809,12 +809,12 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1">
@@ -822,13 +822,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="35.25" customHeight="1">
@@ -836,13 +836,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
@@ -850,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" customHeight="1">
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.75" customHeight="1">
@@ -878,13 +878,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -895,10 +895,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -906,15 +906,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -922,15 +922,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
